--- a/Base/Teams/Raiders/Target Depth Data.xlsx
+++ b/Base/Teams/Raiders/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="C2">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="D2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="C2">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Raiders/Target Depth Data.xlsx
+++ b/Base/Teams/Raiders/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="C3">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D3">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>50</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C3">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>5</v>

--- a/Base/Teams/Raiders/Target Depth Data.xlsx
+++ b/Base/Teams/Raiders/Target Depth Data.xlsx
@@ -450,13 +450,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="C3">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -465,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="C3">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="D3">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <v>5</v>

--- a/Base/Teams/Raiders/Target Depth Data.xlsx
+++ b/Base/Teams/Raiders/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="C2">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="C2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="D2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>5</v>

--- a/Base/Teams/Raiders/Target Depth Data.xlsx
+++ b/Base/Teams/Raiders/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="C3">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="C3">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>5</v>

--- a/Base/Teams/Raiders/Target Depth Data.xlsx
+++ b/Base/Teams/Raiders/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="C2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="C3">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="C2">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="C3">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="D3">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>5</v>
